--- a/source_analyses/eu/2012/3_primary_production/wood_source_analysis.xlsx
+++ b/source_analyses/eu/2012/3_primary_production/wood_source_analysis.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wood" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -105,24 +105,12 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>[1] Eurostat (2011) Forestry in the EU and the world - a statistical portrait</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>[2] IEA (2014) Unit Converter, http://www.iea.org/statistics/resources/unitconverter/.</t>
-  </si>
-  <si>
     <t>[4]</t>
   </si>
   <si>
-    <t>[3] OECD/IEA (2004) Energy statistics manual</t>
-  </si>
-  <si>
-    <t>[4] Eurostat (2012) Roundwood, fuelwood and other basic products (for_basic)</t>
-  </si>
-  <si>
     <t>Wood source analysis</t>
   </si>
   <si>
@@ -133,6 +121,18 @@
   </si>
   <si>
     <t>Volume fuelwood (m3)</t>
+  </si>
+  <si>
+    <t>[1] Eurostat (2011) Forestry in the EU and the world - a statistical portrait (http://refman.et-model.com/publications/1877)</t>
+  </si>
+  <si>
+    <t>[3] OECD/IEA (2005) Energy statistics manual (http://refman.et-model.com/publications/1094)</t>
+  </si>
+  <si>
+    <t>[4] Eurostat (2012) Roundwood, fuelwood and other basic products (for_basic) (http://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=for_basic&amp;lang=en)</t>
+  </si>
+  <si>
+    <t>[2] IEA (2014) Unit Converter (http://www.iea.org/statistics/resources/unitconverter/)</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="B2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -699,7 +699,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20">
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -761,7 +761,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="25">
         <f>(C5*1000000)*(C7)/(C6*1000000)</f>
@@ -771,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="45">
@@ -804,7 +804,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="28">
         <f>(C9*1000)*(C10/1000)</f>
@@ -814,7 +814,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -825,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>16</v>
@@ -951,13 +951,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -967,22 +967,22 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
